--- a/biology/Botanique/Colebr/Colebr..xlsx
+++ b/biology/Botanique/Colebr/Colebr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Thomas Colebrooke, né le 15 juin 1765 à Londres où il est mort le 10 mars 1837, est un magistrat, indianiste et botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il exerce comme magistrat en Inde de 1783 à 1815. Spécialiste du sanskrit, il fournit les noms orientaux à William Roxburgh (1759-1815) pour sa Flora Indica (1820 à 1832, parties xi à xiv). Il récolte des spécimens à Sylhet et envoie des plantes et des dessins à William Jackson Hooker (1785-1865) et à Aylmer Bourke Lambert (1761-1842).
 Directeur de la Royal Asiatic Society, il devient également membre de la Royal Society et de la Linnean Society of London en 1836. Il est élu associé étranger de l'Académie des inscriptions et belles-lettres en 1832.
@@ -544,7 +558,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -586,7 +602,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists includins Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
